--- a/11_Spirituelle-Themen/01_PortalDays/Berechnung-Kin-Nummer und Portaltage.xlsx
+++ b/11_Spirituelle-Themen/01_PortalDays/Berechnung-Kin-Nummer und Portaltage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Dropbox\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Schneider-GitHub\YouTube-Projects\11_Spirituelle-Themen\01_PortalDays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746DC3A2-771F-40CE-8CE8-15FA5AD073D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B48DEB8-1D01-4BC5-8847-38E293E29695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kalender" sheetId="3" r:id="rId1"/>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ADB6B0-D7C9-40E6-82F9-A1D8E45D3CDF}">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4305,7 +4305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
